--- a/data_ml/ML_ensemble_results.xlsx
+++ b/data_ml/ML_ensemble_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,35 +507,35 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>647.6976045064409</v>
+        <v>647.8588690987112</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[1294.7469707450325, 886.3349674049956, 1159.3257356719394, 1014.3113086810041, 1124.0718258231161]</t>
+          <t>[1291.2686531403756, 890.6156241914717, 1155.6697526619303, 976.2059608908943, 1100.8065566781017]</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1095.758161665218</v>
+        <v>1082.913309512555</v>
       </c>
       <c r="H2" t="n">
-        <v>137.7902103469881</v>
+        <v>139.5639463198528</v>
       </c>
       <c r="I2" t="n">
-        <v>18.26263602775363</v>
+        <v>18.04855515854258</v>
       </c>
       <c r="J2" t="n">
-        <v>2.296503505783134</v>
+        <v>2.326065771997547</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>XGR</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_1h_F.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_1h_B.csv</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -545,28 +545,28 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>600.0146679923807</v>
+        <v>2351.146373181699</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[1282.7358201397906, 862.090363943882, 1155.3589914219792, 1011.124384342123, 1090.1005981255892]</t>
+          <t>[4731.629951337902, 2223.5993950500165, 3552.5988806041732, 4533.554721536995, 7336.297269860956]</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1080.282031594673</v>
+        <v>4475.536043678008</v>
       </c>
       <c r="H3" t="n">
-        <v>140.7912459264748</v>
+        <v>1683.801456595725</v>
       </c>
       <c r="I3" t="n">
-        <v>18.00470052657788</v>
+        <v>74.59226739463347</v>
       </c>
       <c r="J3" t="n">
-        <v>2.346520765441246</v>
+        <v>28.06335760992875</v>
       </c>
     </row>
     <row r="4">
@@ -577,54 +577,54 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_2h_B.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_1h_F.csv</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1144.469333288836</v>
+        <v>600.0146679923807</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1728.262526277295, 1481.6324258060197, 1687.20487836485, 1600.711614698488, 1613.7912598224584]</t>
+          <t>[1282.7358201397906, 862.090363943882, 1155.3589914219792, 1011.124384342123, 1090.1005981255892]</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1622.320540993822</v>
+        <v>1080.282031594673</v>
       </c>
       <c r="H4" t="n">
-        <v>84.57720918771753</v>
+        <v>140.7912459264748</v>
       </c>
       <c r="I4" t="n">
-        <v>27.03867568323037</v>
+        <v>18.00470052657788</v>
       </c>
       <c r="J4" t="n">
-        <v>1.409620153128625</v>
+        <v>2.346520765441246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>XGR</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_2h_F.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_1h_F.csv</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -633,24 +633,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1008.519022949123</v>
+        <v>2480.668263609341</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[1665.9338331944825, 1361.8310632360863, 1636.3286875789584, 1589.5928133000325, 1495.0216616853356]</t>
+          <t>[4485.537822902372, 2120.417781429895, 3226.687644404225, 4682.885597795522, 7157.257023094866]</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1549.741611798979</v>
+        <v>4334.557173925376</v>
       </c>
       <c r="H5" t="n">
-        <v>110.3546278754761</v>
+        <v>1687.693718041547</v>
       </c>
       <c r="I5" t="n">
-        <v>25.82902686331632</v>
+        <v>72.24261956542293</v>
       </c>
       <c r="J5" t="n">
-        <v>1.839243797924602</v>
+        <v>28.12822863402579</v>
       </c>
     </row>
     <row r="6">
@@ -661,80 +661,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_3h_B.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_1h_I.csv</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1767.860753299749</v>
+        <v>647.9572457071027</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[2398.712071174306, 2051.8178124779624, 2427.561512770919, 2229.9146973867223, 2421.3372542497036]</t>
+          <t>[1279.1421909941673, 883.0857748813954, 1166.9178064937228, 963.1535226066741, 1147.9377882019446]</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2305.868669611923</v>
+        <v>1088.047416635581</v>
       </c>
       <c r="H6" t="n">
-        <v>146.3372018560781</v>
+        <v>144.1751484453311</v>
       </c>
       <c r="I6" t="n">
-        <v>38.43114449353205</v>
+        <v>18.13412361059302</v>
       </c>
       <c r="J6" t="n">
-        <v>2.438953364267968</v>
+        <v>2.402919140755519</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>XGR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_3h_F.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_1h_I.csv</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1563.03253036833</v>
+        <v>2564.997044544849</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[2311.185007530877, 1918.149420475821, 2298.652118018209, 2134.532613423246, 2357.9688171465723]</t>
+          <t>[4505.979483431365, 2215.7724101966664, 3408.364098784755, 4676.822969106278, 7503.676068591214]</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2204.097595318945</v>
+        <v>4462.123006022055</v>
       </c>
       <c r="H7" t="n">
-        <v>161.6726754440116</v>
+        <v>1758.156041489491</v>
       </c>
       <c r="I7" t="n">
-        <v>36.73495992198242</v>
+        <v>74.36871676703426</v>
       </c>
       <c r="J7" t="n">
-        <v>2.694544590733527</v>
+        <v>29.30260069149151</v>
       </c>
     </row>
     <row r="8">
@@ -745,12 +745,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_4h_B.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_2h_B.csv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -759,108 +759,108 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2141.613101909105</v>
+        <v>1143.410730248724</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[3020.0925946691873, 2451.9046766897422, 2969.0877781058352, 2633.9420900615105, 2958.948827930077]</t>
+          <t>[1733.118743133765, 1487.6339657270762, 1687.4410208700094, 1612.5077780737136, 1599.926305822801]</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2806.79519349127</v>
+        <v>1624.125562725473</v>
       </c>
       <c r="H8" t="n">
-        <v>223.969134982489</v>
+        <v>83.9510495724693</v>
       </c>
       <c r="I8" t="n">
-        <v>46.77991989152117</v>
+        <v>27.06875937875788</v>
       </c>
       <c r="J8" t="n">
-        <v>3.732818916374817</v>
+        <v>1.399184159541155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>XGR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_4h_F.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_2h_B.csv</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1785.874650930753</v>
+        <v>2198.188450932736</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[2844.488883736775, 2224.0686841588076, 2782.4696766030365, 2510.7739623785915, 2932.427154525556]</t>
+          <t>[4684.276531746856, 2597.465345256367, 3334.7966773610183, 4399.800939408646, 6298.419157437939]</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2658.845672280554</v>
+        <v>4262.951730242165</v>
       </c>
       <c r="H9" t="n">
-        <v>259.0557409151107</v>
+        <v>1262.90828189139</v>
       </c>
       <c r="I9" t="n">
-        <v>44.31409453800923</v>
+        <v>71.04919550403608</v>
       </c>
       <c r="J9" t="n">
-        <v>4.317595681918511</v>
+        <v>21.04847136485649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>XGR</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_5h_B.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_2h_F.csv</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2463.046674812166</v>
+        <v>2121.026037810531</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[3522.4206428456237, 2822.7779702102075, 3278.707444855849, 3006.110086165012, 3519.8373847841262]</t>
+          <t>[4712.308863735031, 2498.813666415312, 2851.187628229803, 4474.485222183747, 5369.362235370245]</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3229.970705772163</v>
+        <v>3981.231523186828</v>
       </c>
       <c r="H10" t="n">
-        <v>278.5119128287094</v>
+        <v>1111.687192527531</v>
       </c>
       <c r="I10" t="n">
-        <v>53.83284509620272</v>
+        <v>66.35385871978046</v>
       </c>
       <c r="J10" t="n">
-        <v>4.641865213811823</v>
+        <v>18.52811987545885</v>
       </c>
     </row>
     <row r="11">
@@ -871,12 +871,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EVENT-LOG_ED_duration_prefix_5h_F.csv</t>
+          <t>EVENT-LOG_ED_duration_prefix_2h_F.csv</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -885,24 +885,360 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2002.653366639547</v>
+        <v>1008.519022949123</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[3387.7512844674925, 2622.374497028403, 3070.6234248893343, 2825.217475828278, 3378.8844836369244]</t>
+          <t>[1665.9338331944825, 1361.8310632360863, 1636.3286875789584, 1589.5928133000325, 1495.0216616853356]</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3056.970233170086</v>
+        <v>1549.741611798979</v>
       </c>
       <c r="H11" t="n">
-        <v>301.9318110445565</v>
+        <v>110.3546278754761</v>
       </c>
       <c r="I11" t="n">
-        <v>50.94950388616811</v>
+        <v>25.82902686331632</v>
       </c>
       <c r="J11" t="n">
-        <v>5.032196850742608</v>
+        <v>1.839243797924602</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>RFR</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_2h_I.csv</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1097.84222385546</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[1703.2319121031535, 1439.4965325120872, 1679.1353278333766, 1595.622836577216, 1623.0610265370897]</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1608.109527112585</v>
+      </c>
+      <c r="H12" t="n">
+        <v>92.63124658346992</v>
+      </c>
+      <c r="I12" t="n">
+        <v>26.80182545187641</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.543854109724499</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>XGR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_2h_I.csv</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2130.863368369403</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[4677.921758330853, 2600.6165933787743, 3375.936710536554, 4466.205883149058, 6237.0130296652505]</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4271.538795012098</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1237.757282571421</v>
+      </c>
+      <c r="I13" t="n">
+        <v>71.19231325020164</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20.62928804285702</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RFR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_3h_B.csv</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1778.290326181396</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[2405.3189648762286, 2056.1515807990763, 2422.4343318069896, 2225.7356609013987, 2422.8548140016096]</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2306.499070477061</v>
+      </c>
+      <c r="H14" t="n">
+        <v>145.5620893737149</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38.44165117461768</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.426034822895248</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>XGR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_3h_B.csv</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4143.691848193932</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[4340.647997837112, 2321.815041526279, 5216.92762879298, 3917.8589430935344, 6417.419936459038]</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4442.933909541789</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1362.569097573187</v>
+      </c>
+      <c r="I15" t="n">
+        <v>74.04889849236315</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22.70948495955311</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RFR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_3h_F.csv</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1563.03253036833</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[2311.185007530877, 1918.149420475821, 2298.652118018209, 2134.532613423246, 2357.9688171465723]</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2204.097595318945</v>
+      </c>
+      <c r="H16" t="n">
+        <v>161.6726754440116</v>
+      </c>
+      <c r="I16" t="n">
+        <v>36.73495992198242</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.694544590733527</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>XGR</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_3h_F.csv</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3841.771418212565</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[4113.063467208478, 2341.3881395606236, 5135.640590683082, 4892.620831054763, 5683.951808404655]</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>4433.33296738232</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1161.639749696502</v>
+      </c>
+      <c r="I17" t="n">
+        <v>73.88888278970533</v>
+      </c>
+      <c r="J17" t="n">
+        <v>19.3606624949417</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RFR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_3h_I.csv</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1704.91609403283</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[2364.734614353978, 2003.3332513352275, 2392.260502576746, 2174.530336023715, 2402.195932780882]</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2267.410927414109</v>
+      </c>
+      <c r="H18" t="n">
+        <v>155.9423851233741</v>
+      </c>
+      <c r="I18" t="n">
+        <v>37.79018212356848</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.599039752056234</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>XGR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EVENT-LOG_ED_duration_prefix_3h_I.csv</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4036.090649479813</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[4207.215422653061, 2246.9982403598956, 5050.822643401474, 4479.744300324759, 6403.3123417720135]</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>4477.618589702241</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1348.009558440431</v>
+      </c>
+      <c r="I19" t="n">
+        <v>74.62697649503734</v>
+      </c>
+      <c r="J19" t="n">
+        <v>22.46682597400719</v>
       </c>
     </row>
   </sheetData>
